--- a/biology/Botanique/Brachystephanus_longiflorus/Brachystephanus_longiflorus.xlsx
+++ b/biology/Botanique/Brachystephanus_longiflorus/Brachystephanus_longiflorus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brachystephanus longiflorus Lindau est une espèce de plantes de la famille des Acanthaceae et du genre Brachystephanus, présente sur la ligne montagneuse du Cameroun.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'une grande herbe robuste pouvant atteindre 150 cm de hauteur[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'une grande herbe robuste pouvant atteindre 150 cm de hauteur.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a été observée à Ogoja dans l'État de Cross River au Nigeria[3], sur l'île de Bioko en Guinée équatoriale, et principalement au Cameroun, sur sept sites dans trois régions : Adamaoua (Mbango), Centre (Ndikiniméki, Éséka) et surtout dans la Région du Sud-Ouest (mont Koupé, mont Cameroun[2]).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a été observée à Ogoja dans l'État de Cross River au Nigeria, sur l'île de Bioko en Guinée équatoriale, et principalement au Cameroun, sur sept sites dans trois régions : Adamaoua (Mbango), Centre (Ndikiniméki, Éséka) et surtout dans la Région du Sud-Ouest (mont Koupé, mont Cameroun).
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une espèce subendémique, assez rare[2].
-Menacée par la déforestation liée à l'agriculture et à l'exploitation du bois, surtout au Nigeria et au mont Cameroun, elle figure sur la liste rouge de l'UICN comme une espèce vulnérable[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce subendémique, assez rare.
+Menacée par la déforestation liée à l'agriculture et à l'exploitation du bois, surtout au Nigeria et au mont Cameroun, elle figure sur la liste rouge de l'UICN comme une espèce vulnérable.
 </t>
         </is>
       </c>
